--- a/Registro.xlsx
+++ b/Registro.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Empleados</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>Scott</t>
+  </si>
+  <si>
+    <t>pipe</t>
+  </si>
+  <si>
+    <t>9:20:00</t>
   </si>
   <si>
     <t>Horas Trabajadas Empleados</t>
@@ -114,8 +120,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B4" totalsRowShown="0">
-  <autoFilter ref="A1:B4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B5" totalsRowShown="0">
+  <autoFilter ref="A1:B5"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Empleados"/>
     <tableColumn id="2" name="Horas Trabajadas Empleados"/>
@@ -431,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,19 +456,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -473,16 +479,16 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -490,10 +496,18 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Registro.xlsx
+++ b/Registro.xlsx
@@ -40,16 +40,19 @@
     <t>pipe</t>
   </si>
   <si>
-    <t>9:20:00</t>
+    <t>9:50:00</t>
   </si>
   <si>
     <t>Horas Trabajadas Empleados</t>
   </si>
   <si>
-    <t>Dep1</t>
-  </si>
-  <si>
-    <t>assa</t>
+    <t>dep2</t>
+  </si>
+  <si>
+    <t>Holaaa
+deded
+edede
+dedede</t>
   </si>
   <si>
     <t>dep3</t>

--- a/Registro.xlsx
+++ b/Registro.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Empleados</t>
   </si>
@@ -34,9 +34,21 @@
     <t>10:00:00</t>
   </si>
   <si>
+    <t>2025-10</t>
+  </si>
+  <si>
+    <t>1:00:00</t>
+  </si>
+  <si>
+    <t>2025-11</t>
+  </si>
+  <si>
     <t>Scott</t>
   </si>
   <si>
+    <t>1:21:00</t>
+  </si>
+  <si>
     <t>pipe</t>
   </si>
   <si>
@@ -44,6 +56,9 @@
   </si>
   <si>
     <t>Horas Trabajadas Empleados</t>
+  </si>
+  <si>
+    <t>Fecha</t>
   </si>
   <si>
     <t>dep2</t>
@@ -123,19 +138,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B5" totalsRowShown="0">
-  <autoFilter ref="A1:B5"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C6" totalsRowShown="0">
+  <autoFilter ref="A1:C6"/>
+  <tableColumns count="3">
     <tableColumn id="1" name="Empleados"/>
     <tableColumn id="2" name="Horas Trabajadas Empleados"/>
+    <tableColumn id="3" name="Fecha"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D1:E4" totalsRowShown="0">
-  <autoFilter ref="D1:E4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="E1:F4" totalsRowShown="0">
+  <autoFilter ref="E1:F4"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Departamentos"/>
     <tableColumn id="2" name="Descripcion Dep"/>
@@ -145,8 +161,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="G1:H3" totalsRowShown="0">
-  <autoFilter ref="G1:H3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="H1:I3" totalsRowShown="0">
+  <autoFilter ref="H1:I3"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Proyectos"/>
     <tableColumn id="2" name="Descripcion Pro"/>
@@ -440,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -448,69 +464,96 @@
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
-        <v>17</v>
+      <c r="I1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
